--- a/public/template/Common Bond_sample_template.xlsx
+++ b/public/template/Common Bond_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE138FB6-F262-4617-A21B-B8B94FEB5802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95CB150-C68F-4AD0-82EF-96AC9CD36F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="2688" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Order Received Data and Time</t>
   </si>
@@ -44,12 +44,6 @@
     <t>OrderID</t>
   </si>
   <si>
-    <t>Emp ID-Order Assigned</t>
-  </si>
-  <si>
-    <t>Assignee_QA</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -71,18 +65,9 @@
     <t>Client</t>
   </si>
   <si>
-    <t>SIPL5316</t>
-  </si>
-  <si>
-    <t>SIPL5688</t>
-  </si>
-  <si>
     <t>Tier</t>
   </si>
   <si>
-    <t>WIP</t>
-  </si>
-  <si>
     <t>Municipality</t>
   </si>
   <si>
@@ -108,6 +93,18 @@
   </si>
   <si>
     <t>Typing(T1)</t>
+  </si>
+  <si>
+    <t>Typist</t>
+  </si>
+  <si>
+    <t>Typist QC</t>
+  </si>
+  <si>
+    <t>SIPL0102</t>
+  </si>
+  <si>
+    <t>SIPL5317</t>
   </si>
 </sst>
 </file>
@@ -459,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -597,6 +594,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -655,8 +665,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1015,17 +1025,17 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1038,37 +1048,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1076,38 +1086,38 @@
         <v>45509.0625</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/Common Bond_sample_template.xlsx
+++ b/public/template/Common Bond_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95CB150-C68F-4AD0-82EF-96AC9CD36F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE138FB6-F262-4617-A21B-B8B94FEB5802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="2688" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Order Received Data and Time</t>
   </si>
@@ -44,6 +44,12 @@
     <t>OrderID</t>
   </si>
   <si>
+    <t>Emp ID-Order Assigned</t>
+  </si>
+  <si>
+    <t>Assignee_QA</t>
+  </si>
+  <si>
     <t>State</t>
   </si>
   <si>
@@ -65,9 +71,18 @@
     <t>Client</t>
   </si>
   <si>
+    <t>SIPL5316</t>
+  </si>
+  <si>
+    <t>SIPL5688</t>
+  </si>
+  <si>
     <t>Tier</t>
   </si>
   <si>
+    <t>WIP</t>
+  </si>
+  <si>
     <t>Municipality</t>
   </si>
   <si>
@@ -93,18 +108,6 @@
   </si>
   <si>
     <t>Typing(T1)</t>
-  </si>
-  <si>
-    <t>Typist</t>
-  </si>
-  <si>
-    <t>Typist QC</t>
-  </si>
-  <si>
-    <t>SIPL0102</t>
-  </si>
-  <si>
-    <t>SIPL5317</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -599,19 +602,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -665,8 +655,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1025,17 +1015,17 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1048,37 +1038,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1086,38 +1076,38 @@
         <v>45509.0625</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
